--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,122 +534,122 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.223195861518971</v>
+        <v>0.769158</v>
       </c>
       <c r="H2">
-        <v>0.223195861518971</v>
+        <v>2.307474</v>
       </c>
       <c r="I2">
-        <v>0.04689111211947998</v>
+        <v>0.1346397612061805</v>
       </c>
       <c r="J2">
-        <v>0.04689111211947998</v>
+        <v>0.1346397612061805</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0491795218912461</v>
+        <v>0.07962999999999999</v>
       </c>
       <c r="N2">
-        <v>0.0491795218912461</v>
+        <v>0.23889</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4826869960013497</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4826869960013497</v>
       </c>
       <c r="Q2">
-        <v>0.01097666575760777</v>
+        <v>0.06124805153999999</v>
       </c>
       <c r="R2">
-        <v>0.01097666575760777</v>
+        <v>0.55123246386</v>
       </c>
       <c r="S2">
-        <v>0.04689111211947998</v>
+        <v>0.06498886187895031</v>
       </c>
       <c r="T2">
-        <v>0.04689111211947998</v>
+        <v>0.06498886187895032</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.40770486931023</v>
+        <v>0.769158</v>
       </c>
       <c r="H3">
-        <v>2.40770486931023</v>
+        <v>2.307474</v>
       </c>
       <c r="I3">
-        <v>0.5058335679214541</v>
+        <v>0.1346397612061805</v>
       </c>
       <c r="J3">
-        <v>0.5058335679214541</v>
+        <v>0.1346397612061805</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.0491795218912461</v>
+        <v>0.029119</v>
       </c>
       <c r="N3">
-        <v>0.0491795218912461</v>
+        <v>0.087357</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1765083842341241</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1765083842341241</v>
       </c>
       <c r="Q3">
-        <v>0.1184097743279023</v>
+        <v>0.022397111802</v>
       </c>
       <c r="R3">
-        <v>0.1184097743279023</v>
+        <v>0.201574006218</v>
       </c>
       <c r="S3">
-        <v>0.5058335679214541</v>
+        <v>0.02376504670417123</v>
       </c>
       <c r="T3">
-        <v>0.5058335679214541</v>
+        <v>0.02376504670417123</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.103009416399734</v>
+        <v>0.769158</v>
       </c>
       <c r="H4">
-        <v>0.103009416399734</v>
+        <v>2.307474</v>
       </c>
       <c r="I4">
-        <v>0.02164119917318257</v>
+        <v>0.1346397612061805</v>
       </c>
       <c r="J4">
-        <v>0.02164119917318257</v>
+        <v>0.1346397612061805</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0491795218912461</v>
+        <v>0.05622333333333333</v>
       </c>
       <c r="N4">
-        <v>0.0491795218912461</v>
+        <v>0.16867</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.3408046197645261</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.3408046197645261</v>
       </c>
       <c r="Q4">
-        <v>0.005065953848835203</v>
+        <v>0.04324462662</v>
       </c>
       <c r="R4">
-        <v>0.005065953848835203</v>
+        <v>0.38920163958</v>
       </c>
       <c r="S4">
-        <v>0.02164119917318257</v>
+        <v>0.04588585262305894</v>
       </c>
       <c r="T4">
-        <v>0.02164119917318257</v>
+        <v>0.04588585262305894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0827968767063828</v>
+        <v>2.473123</v>
       </c>
       <c r="H5">
-        <v>0.0827968767063828</v>
+        <v>7.419369</v>
       </c>
       <c r="I5">
-        <v>0.01739475634700225</v>
+        <v>0.4329158510390747</v>
       </c>
       <c r="J5">
-        <v>0.01739475634700225</v>
+        <v>0.4329158510390748</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.0491795218912461</v>
+        <v>0.07962999999999999</v>
       </c>
       <c r="N5">
-        <v>0.0491795218912461</v>
+        <v>0.23889</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.4826869960013497</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.4826869960013497</v>
       </c>
       <c r="Q5">
-        <v>0.004071910810508357</v>
+        <v>0.19693478449</v>
       </c>
       <c r="R5">
-        <v>0.004071910810508357</v>
+        <v>1.77241306041</v>
       </c>
       <c r="S5">
-        <v>0.01739475634700225</v>
+        <v>0.2089628516594187</v>
       </c>
       <c r="T5">
-        <v>0.01739475634700225</v>
+        <v>0.2089628516594188</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.7551849732002</v>
+        <v>2.473123</v>
       </c>
       <c r="H6">
-        <v>1.7551849732002</v>
+        <v>7.419369</v>
       </c>
       <c r="I6">
-        <v>0.3687459740903913</v>
+        <v>0.4329158510390747</v>
       </c>
       <c r="J6">
-        <v>0.3687459740903913</v>
+        <v>0.4329158510390748</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.0491795218912461</v>
+        <v>0.029119</v>
       </c>
       <c r="N6">
-        <v>0.0491795218912461</v>
+        <v>0.087357</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.1765083842341241</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.1765083842341241</v>
       </c>
       <c r="Q6">
-        <v>0.08631915781268544</v>
+        <v>0.072014868637</v>
       </c>
       <c r="R6">
-        <v>0.08631915781268544</v>
+        <v>0.6481338177330001</v>
       </c>
       <c r="S6">
-        <v>0.3687459740903913</v>
+        <v>0.07641327737624784</v>
       </c>
       <c r="T6">
-        <v>0.3687459740903913</v>
+        <v>0.07641327737624785</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,796 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.187983625994537</v>
+        <v>2.473123</v>
       </c>
       <c r="H7">
-        <v>0.187983625994537</v>
+        <v>7.419369</v>
       </c>
       <c r="I7">
-        <v>0.03949339034848993</v>
+        <v>0.4329158510390747</v>
       </c>
       <c r="J7">
-        <v>0.03949339034848993</v>
+        <v>0.4329158510390748</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0491795218912461</v>
+        <v>0.05622333333333333</v>
       </c>
       <c r="N7">
-        <v>0.0491795218912461</v>
+        <v>0.16867</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.3408046197645261</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.3408046197645261</v>
       </c>
       <c r="Q7">
-        <v>0.009244944849794151</v>
+        <v>0.1390472188033333</v>
       </c>
       <c r="R7">
-        <v>0.009244944849794151</v>
+        <v>1.25142496923</v>
       </c>
       <c r="S7">
-        <v>0.03949339034848993</v>
+        <v>0.1475397220034081</v>
       </c>
       <c r="T7">
-        <v>0.03949339034848993</v>
+        <v>0.1475397220034081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1491126666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.447338</v>
+      </c>
+      <c r="I8">
+        <v>0.02610191122346356</v>
+      </c>
+      <c r="J8">
+        <v>0.02610191122346356</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07962999999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.23889</v>
+      </c>
+      <c r="O8">
+        <v>0.4826869960013497</v>
+      </c>
+      <c r="P8">
+        <v>0.4826869960013497</v>
+      </c>
+      <c r="Q8">
+        <v>0.01187384164666667</v>
+      </c>
+      <c r="R8">
+        <v>0.10686457482</v>
+      </c>
+      <c r="S8">
+        <v>0.01259905311834754</v>
+      </c>
+      <c r="T8">
+        <v>0.01259905311834754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1491126666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.447338</v>
+      </c>
+      <c r="I9">
+        <v>0.02610191122346356</v>
+      </c>
+      <c r="J9">
+        <v>0.02610191122346356</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.029119</v>
+      </c>
+      <c r="N9">
+        <v>0.087357</v>
+      </c>
+      <c r="O9">
+        <v>0.1765083842341241</v>
+      </c>
+      <c r="P9">
+        <v>0.1765083842341241</v>
+      </c>
+      <c r="Q9">
+        <v>0.004342011740666668</v>
+      </c>
+      <c r="R9">
+        <v>0.039078105666</v>
+      </c>
+      <c r="S9">
+        <v>0.004607206175476103</v>
+      </c>
+      <c r="T9">
+        <v>0.004607206175476103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1491126666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.447338</v>
+      </c>
+      <c r="I10">
+        <v>0.02610191122346356</v>
+      </c>
+      <c r="J10">
+        <v>0.02610191122346356</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.05622333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.16867</v>
+      </c>
+      <c r="O10">
+        <v>0.3408046197645261</v>
+      </c>
+      <c r="P10">
+        <v>0.3408046197645261</v>
+      </c>
+      <c r="Q10">
+        <v>0.008383611162222221</v>
+      </c>
+      <c r="R10">
+        <v>0.07545250046</v>
+      </c>
+      <c r="S10">
+        <v>0.008895651929639916</v>
+      </c>
+      <c r="T10">
+        <v>0.008895651929639916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.098229</v>
+      </c>
+      <c r="H11">
+        <v>0.294687</v>
+      </c>
+      <c r="I11">
+        <v>0.01719481446402677</v>
+      </c>
+      <c r="J11">
+        <v>0.01719481446402677</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07962999999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.23889</v>
+      </c>
+      <c r="O11">
+        <v>0.4826869960013497</v>
+      </c>
+      <c r="P11">
+        <v>0.4826869960013497</v>
+      </c>
+      <c r="Q11">
+        <v>0.007821975269999998</v>
+      </c>
+      <c r="R11">
+        <v>0.07039777742999999</v>
+      </c>
+      <c r="S11">
+        <v>0.008299713340441639</v>
+      </c>
+      <c r="T11">
+        <v>0.008299713340441639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.098229</v>
+      </c>
+      <c r="H12">
+        <v>0.294687</v>
+      </c>
+      <c r="I12">
+        <v>0.01719481446402677</v>
+      </c>
+      <c r="J12">
+        <v>0.01719481446402677</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.029119</v>
+      </c>
+      <c r="N12">
+        <v>0.087357</v>
+      </c>
+      <c r="O12">
+        <v>0.1765083842341241</v>
+      </c>
+      <c r="P12">
+        <v>0.1765083842341241</v>
+      </c>
+      <c r="Q12">
+        <v>0.002860330251</v>
+      </c>
+      <c r="R12">
+        <v>0.025742972259</v>
+      </c>
+      <c r="S12">
+        <v>0.003035028918250912</v>
+      </c>
+      <c r="T12">
+        <v>0.003035028918250912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.098229</v>
+      </c>
+      <c r="H13">
+        <v>0.294687</v>
+      </c>
+      <c r="I13">
+        <v>0.01719481446402677</v>
+      </c>
+      <c r="J13">
+        <v>0.01719481446402677</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.05622333333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.16867</v>
+      </c>
+      <c r="O13">
+        <v>0.3408046197645261</v>
+      </c>
+      <c r="P13">
+        <v>0.3408046197645261</v>
+      </c>
+      <c r="Q13">
+        <v>0.00552276181</v>
+      </c>
+      <c r="R13">
+        <v>0.04970485628999999</v>
+      </c>
+      <c r="S13">
+        <v>0.005860072205334217</v>
+      </c>
+      <c r="T13">
+        <v>0.005860072205334217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.009686666666667</v>
+      </c>
+      <c r="H14">
+        <v>6.029059999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.3517921323047343</v>
+      </c>
+      <c r="J14">
+        <v>0.3517921323047343</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.07962999999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.23889</v>
+      </c>
+      <c r="O14">
+        <v>0.4826869960013497</v>
+      </c>
+      <c r="P14">
+        <v>0.4826869960013497</v>
+      </c>
+      <c r="Q14">
+        <v>0.1600313492666667</v>
+      </c>
+      <c r="R14">
+        <v>1.4402821434</v>
+      </c>
+      <c r="S14">
+        <v>0.1698054875590815</v>
+      </c>
+      <c r="T14">
+        <v>0.1698054875590816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.009686666666667</v>
+      </c>
+      <c r="H15">
+        <v>6.029059999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.3517921323047343</v>
+      </c>
+      <c r="J15">
+        <v>0.3517921323047343</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.029119</v>
+      </c>
+      <c r="N15">
+        <v>0.087357</v>
+      </c>
+      <c r="O15">
+        <v>0.1765083842341241</v>
+      </c>
+      <c r="P15">
+        <v>0.1765083842341241</v>
+      </c>
+      <c r="Q15">
+        <v>0.05852006604666667</v>
+      </c>
+      <c r="R15">
+        <v>0.5266805944199999</v>
+      </c>
+      <c r="S15">
+        <v>0.06209426085938587</v>
+      </c>
+      <c r="T15">
+        <v>0.06209426085938587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.009686666666667</v>
+      </c>
+      <c r="H16">
+        <v>6.029059999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.3517921323047343</v>
+      </c>
+      <c r="J16">
+        <v>0.3517921323047343</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.05622333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.16867</v>
+      </c>
+      <c r="O16">
+        <v>0.3408046197645261</v>
+      </c>
+      <c r="P16">
+        <v>0.3408046197645261</v>
+      </c>
+      <c r="Q16">
+        <v>0.1129912833555555</v>
+      </c>
+      <c r="R16">
+        <v>1.0169215502</v>
+      </c>
+      <c r="S16">
+        <v>0.1198923838862668</v>
+      </c>
+      <c r="T16">
+        <v>0.1198923838862668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.2134013333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.640204</v>
+      </c>
+      <c r="I17">
+        <v>0.03735552976252021</v>
+      </c>
+      <c r="J17">
+        <v>0.03735552976252021</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.07962999999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.23889</v>
+      </c>
+      <c r="O17">
+        <v>0.4826869960013497</v>
+      </c>
+      <c r="P17">
+        <v>0.4826869960013497</v>
+      </c>
+      <c r="Q17">
+        <v>0.01699314817333333</v>
+      </c>
+      <c r="R17">
+        <v>0.15293833356</v>
+      </c>
+      <c r="S17">
+        <v>0.01803102844510989</v>
+      </c>
+      <c r="T17">
+        <v>0.01803102844510989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.2134013333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.640204</v>
+      </c>
+      <c r="I18">
+        <v>0.03735552976252021</v>
+      </c>
+      <c r="J18">
+        <v>0.03735552976252021</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.029119</v>
+      </c>
+      <c r="N18">
+        <v>0.087357</v>
+      </c>
+      <c r="O18">
+        <v>0.1765083842341241</v>
+      </c>
+      <c r="P18">
+        <v>0.1765083842341241</v>
+      </c>
+      <c r="Q18">
+        <v>0.006214033425333334</v>
+      </c>
+      <c r="R18">
+        <v>0.055926300828</v>
+      </c>
+      <c r="S18">
+        <v>0.006593564200592177</v>
+      </c>
+      <c r="T18">
+        <v>0.006593564200592177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2134013333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.640204</v>
+      </c>
+      <c r="I19">
+        <v>0.03735552976252021</v>
+      </c>
+      <c r="J19">
+        <v>0.03735552976252021</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.05622333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.16867</v>
+      </c>
+      <c r="O19">
+        <v>0.3408046197645261</v>
+      </c>
+      <c r="P19">
+        <v>0.3408046197645261</v>
+      </c>
+      <c r="Q19">
+        <v>0.01199813429777778</v>
+      </c>
+      <c r="R19">
+        <v>0.10798320868</v>
+      </c>
+      <c r="S19">
+        <v>0.01273093711681814</v>
+      </c>
+      <c r="T19">
+        <v>0.01273093711681814</v>
       </c>
     </row>
   </sheetData>
